--- a/만들고 싶은 게임 기획서와 기타등등/스토리 역기획서/리마스터 아란 컨셉과 스토리 역기획서.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/스토리 역기획서/리마스터 아란 컨셉과 스토리 역기획서.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\스토리 역기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4BF90-FC66-43A5-BD23-D0C95392AEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA3E1A-48C5-48C8-8998-A4A223EBC9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0AB30310-9DC3-4FC9-B557-25374885CDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{0AB30310-9DC3-4FC9-B557-25374885CDBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="리마스터 아란 스토리와 컨셉 역기획서" sheetId="1" r:id="rId1"/>
+    <sheet name="리마스터 전 아란 스토리와 컨셉 분석" sheetId="3" r:id="rId1"/>
+    <sheet name="리마스터 후 아란의 스토리와 컨셉 분석" sheetId="4" r:id="rId2"/>
+    <sheet name="리마스터 아란 스토리와 컨셉 역기획서 준비페이지" sheetId="2" r:id="rId3"/>
+    <sheet name="리마스터 아란 스토리와 컨셉 역기획서" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -382,10 +385,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EF4336-2825-4A19-ACF0-3349E16C17B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82FA04D-F9D3-4606-AA3F-43D9B053E489}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB22572-82CE-4901-8686-D211624CC64F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B82D4C2-45D2-4B9E-98D8-9D6C5E64D711}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
